--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/COLORADO_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/COLORADO_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1318"/>
+  <dimension ref="A1:D1312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C34">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C49">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C74">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C80">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C121">
@@ -2102,7 +2102,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C132">
@@ -2154,7 +2154,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C136">
@@ -2466,7 +2466,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C160">
@@ -2479,7 +2479,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C161">
@@ -2492,7 +2492,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C162">
@@ -2596,7 +2596,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C170">
@@ -2622,7 +2622,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C175">
@@ -2861,7 +2861,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3035,7 +3035,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C203">
@@ -3248,7 +3248,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C219">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C223">
@@ -3487,7 +3487,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C237">
@@ -3578,7 +3578,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C244">
@@ -3630,7 +3630,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C248">
@@ -3643,7 +3643,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C249">
@@ -3656,7 +3656,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C250">
@@ -3669,7 +3669,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C251">
@@ -3799,12 +3799,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C261">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C264">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C265">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C269">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C277">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C282">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C286">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C303">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C304">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C306">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C313">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C322">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C326">
@@ -4688,7 +4688,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C329">
@@ -4701,7 +4701,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C330">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C337">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C338">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C347">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C350">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C356">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C361">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C363">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C365">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C366">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C367">
@@ -5213,7 +5213,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C369">
@@ -5278,7 +5278,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C374">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C383">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C387">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C389">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C392">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C394">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C395">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C396">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C400">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C401">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C406">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C413">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C416">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C418">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C424">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C435">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C438">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C439">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C443">
@@ -6193,7 +6193,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C444">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C449">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C459">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C464">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C469">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C472">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C475">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C480">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C481">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C482">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C484">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C490">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C491">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C493">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C496">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C498">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C502">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C507">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C508">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C514">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C521">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C527">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C531">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C533">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C536">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C541">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C545">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C551">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C554">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C555">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C558">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C562">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C567">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C569">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C570">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C578">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C584">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C589">
@@ -8114,7 +8114,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -8327,7 +8327,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C607">
@@ -8353,7 +8353,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C609">
@@ -9016,7 +9016,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C660">
@@ -9281,7 +9281,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C680">
@@ -9372,7 +9372,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C687">
@@ -9424,7 +9424,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C691">
@@ -9546,7 +9546,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C700">
@@ -9559,7 +9559,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C701">
@@ -9611,7 +9611,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C705">
@@ -9863,7 +9863,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C724">
@@ -9902,7 +9902,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C727">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C731">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C736">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C742">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C746">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C751">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C756">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C761">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C766">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C770">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C774">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C775">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C788">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C795">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C798">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C810">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C829">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C843">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C849">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C856">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C859">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C862">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C878">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C882">
@@ -12070,7 +12070,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C893">
@@ -12083,7 +12083,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C894">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C907">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C908">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C914">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C919">
@@ -12499,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C926">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C938">
@@ -12668,7 +12668,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C939">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C943">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C947">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C951">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C952">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C957">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C978">
@@ -13206,7 +13206,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C980">
@@ -13297,7 +13297,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C987">
@@ -13310,7 +13310,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C988">
@@ -13349,7 +13349,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C991">
@@ -13388,7 +13388,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C994">
@@ -13502,7 +13502,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1002">
@@ -13580,7 +13580,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1008">
@@ -13684,7 +13684,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1016">
@@ -13762,7 +13762,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1022">
@@ -13879,7 +13879,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1031">
@@ -13892,7 +13892,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1032">
@@ -13905,7 +13905,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1033">
@@ -14409,7 +14409,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1071">
@@ -14500,7 +14500,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1078">
@@ -14661,7 +14661,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1090">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1119">
@@ -15113,7 +15113,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1124">
@@ -15243,7 +15243,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1134">
@@ -15334,7 +15334,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -15404,7 +15404,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1146">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1149">
@@ -15508,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1154">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1158">
@@ -15677,7 +15677,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1167">
@@ -15846,7 +15846,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1180">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1182">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1183">
@@ -16015,7 +16015,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1193">
@@ -16041,7 +16041,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1195">
@@ -16106,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1200">
@@ -16132,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1202">
@@ -16223,7 +16223,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1209">
@@ -16236,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1210">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1213">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1218">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1221">
@@ -16418,7 +16418,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1224">
@@ -16961,7 +16961,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1265">
@@ -16987,7 +16987,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1267">
@@ -17143,7 +17143,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1279">
@@ -17260,7 +17260,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1288">
@@ -17273,7 +17273,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1289">
@@ -17416,7 +17416,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1300">
@@ -17429,7 +17429,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1301">
@@ -17520,7 +17520,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1308">
@@ -17572,7 +17572,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1312">
@@ -17580,41 +17580,6 @@
       </c>
       <c r="D1312">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
